--- a/data/report_template_for_company.xlsx
+++ b/data/report_template_for_company.xlsx
@@ -37,6 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,6 +103,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,14 +394,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -407,7 +416,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
